--- a/biology/Histoire de la zoologie et de la botanique/Alfred_Malherbe/Alfred_Malherbe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfred_Malherbe/Alfred_Malherbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Malherbe est un magistrat et un naturaliste français, né le 14 juillet 1804 d’une famille originaire de Metz, à l’île Maurice et mort à Metz le 14 août 1865[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Malherbe est un magistrat et un naturaliste français, né le 14 juillet 1804 d’une famille originaire de Metz, à l’île Maurice et mort à Metz le 14 août 1865. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Malherbe voit le jour sur l'Ile Maurice à Port-Nord-Ouest. 
 Après des études de droit, il est nommé au Tribunal de Metz en 1832 où il est juge d’instruction, vice-président du tribunal, conseiller à la Cour.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 Notice sur quelques espèces de chênes et spécialement sur le chêne liège (Quercus suber) (Verronnais, Metz, 1839).
